--- a/701_WebAPI/Data/ExcelReports/TransactionsHOExport/TransactionsHOExport_8-2022.xlsx
+++ b/701_WebAPI/Data/ExcelReports/TransactionsHOExport/TransactionsHOExport_8-2022.xlsx
@@ -49,13 +49,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Century Gothic"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Century Gothic"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,8 +87,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -92,49 +103,49 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
